--- a/ReadingLinks.xlsx
+++ b/ReadingLinks.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="News" sheetId="1" r:id="rId1"/>
@@ -26,12 +26,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>https://www.nature.com/</t>
   </si>
   <si>
     <t>Nature/Science</t>
+  </si>
+  <si>
+    <t>https://siliconangle.com/</t>
+  </si>
+  <si>
+    <t>http://drudgereport.com/</t>
   </si>
 </sst>
 </file>
@@ -351,10 +357,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -363,10 +380,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -375,7 +403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
